--- a/excel/DATA_MIG.xlsx
+++ b/excel/DATA_MIG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrainaNyAinaRakoto\Documents\Bot ADR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A5659E-B8E6-4454-94AE-D3A84CA7462D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8186F044-A952-4E61-81AB-2E3444B309E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D3B04EF-C702-431C-B8A8-55B77D33493B}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID job migration</t>
-  </si>
-  <si>
-    <t>Group job migration</t>
   </si>
   <si>
     <t>IWF_DATA_MIG</t>
@@ -613,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B43582-F16E-4498-A06D-55666FFE6302}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,71 +622,66 @@
     <col min="2" max="2" width="160.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="70" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/excel/DATA_MIG.xlsx
+++ b/excel/DATA_MIG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrainaNyAinaRakoto\Documents\Bot ADR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8186F044-A952-4E61-81AB-2E3444B309E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88120EB2-3066-478E-9EF8-E6DD47C6FCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D3B04EF-C702-431C-B8A8-55B77D33493B}"/>
   </bookViews>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>ID job migration</t>
-  </si>
-  <si>
-    <t>IWF_DATA_MIG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Lien prod</t>
   </si>
   <si>
-    <t>Group Job Migration</t>
-  </si>
-  <si>
     <t>https://a4re-d03.build.ifsdemoworld.com/landing-page/</t>
   </si>
   <si>
@@ -80,7 +71,13 @@
     <t>Lien</t>
   </si>
   <si>
-    <t>Statut</t>
+    <t>Group ID</t>
+  </si>
+  <si>
+    <t>MIG_SLKCP</t>
+  </si>
+  <si>
+    <t>https://a4re-d03.build.ifsdemoworld.com/main/ifsapplications/web/page/SalesPart/Form;path=0.995139193.17566481.12569573;record=KENhdGFsb2dObz0nSVRFTUZHRDAwMycsQ29udHJhY3Q9J0lXRjAxJyk%3D</t>
   </si>
 </sst>
 </file>
@@ -157,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -228,25 +225,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -255,9 +239,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,9 +250,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -610,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B43582-F16E-4498-A06D-55666FFE6302}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,63 +603,66 @@
     <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="70" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/excel/DATA_MIG.xlsx
+++ b/excel/DATA_MIG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrainaNyAinaRakoto\Documents\Bot ADR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88120EB2-3066-478E-9EF8-E6DD47C6FCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29320BE6-3A69-4061-B9E2-902AEB569E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D3B04EF-C702-431C-B8A8-55B77D33493B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Lien prod</t>
   </si>
@@ -78,13 +78,22 @@
   </si>
   <si>
     <t>https://a4re-d03.build.ifsdemoworld.com/main/ifsapplications/web/page/SalesPart/Form;path=0.995139193.17566481.12569573;record=KENhdGFsb2dObz0nSVRFTUZHRDAwMycsQ29udHJhY3Q9J0lXRjAxJyk%3D</t>
+  </si>
+  <si>
+    <t>SUPPLIER_INFO_ADDRESS</t>
+  </si>
+  <si>
+    <t>https://a4re-d03.build.ifsdemoworld.com/main/ifsapplications/web/page/Supplier/AddressInfo;record=KFN1cHBsaWVySWQ9JzEwMDE2MScp;path=0.1632440489.1296968462.1135537338.470841190.274375856</t>
+  </si>
+  <si>
+    <t>View</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +130,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -154,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -173,19 +188,6 @@
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -225,12 +227,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -238,21 +262,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -591,43 +643,43 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="160.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="160.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -638,37 +690,58 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="17"/>
     </row>
     <row r="18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="70" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{4536C3C8-8387-46CE-8B8A-A1291721E9E3}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{302DC3C6-1CA6-4403-B5F0-D66229FDD3C0}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{272A5FBF-FA8A-4C86-AA17-C45DA606FBCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
